--- a/biology/Botanique/Coquette_des_Blanches/Coquette_des_Blanches.xlsx
+++ b/biology/Botanique/Coquette_des_Blanches/Coquette_des_Blanches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Coquette des Blanches' est un cultivar de rosier obtenu en 1871 par le rosiériste français François Lacharme[1].
+'Coquette des Blanches' est un cultivar de rosier obtenu en 1871 par le rosiériste français François Lacharme.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un rosier de Noisette[2]au port érigé de 150 cm à 200 cm et presque inerme[3]. Il peut en petit grimpant habiller une colonne. Son feuillage est vert sombre. Les fleurs en quartiers sont moyennes, en forme de coupe plate (17-25 pétales) et globuleuses[4], d'un joli blanc parfois nuancé de rose carné très pâle au bord des pétales. Elles exhalent un parfum léger fort agréable. La floraison est légèrement remontante.
-Cette rose à l'aspect de rose ancienne aux pétales chiffonnés est issue de 'Mademoiselle Blanche Lafitte' (Pradel, 1851) x 'Sapho' (Vibert, 1842)[5]. Elle est encore présente dans des catalogues de roses à l'ancienne, mais rare en Europe, et beaucoup plus commercialisée dans les pays anglo-saxons. Elle est très résistante aux maladies.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un rosier de Noisetteau port érigé de 150 cm à 200 cm et presque inerme. Il peut en petit grimpant habiller une colonne. Son feuillage est vert sombre. Les fleurs en quartiers sont moyennes, en forme de coupe plate (17-25 pétales) et globuleuses, d'un joli blanc parfois nuancé de rose carné très pâle au bord des pétales. Elles exhalent un parfum léger fort agréable. La floraison est légèrement remontante.
+Cette rose à l'aspect de rose ancienne aux pétales chiffonnés est issue de 'Mademoiselle Blanche Lafitte' (Pradel, 1851) x 'Sapho' (Vibert, 1842). Elle est encore présente dans des catalogues de roses à l'ancienne, mais rare en Europe, et beaucoup plus commercialisée dans les pays anglo-saxons. Elle est très résistante aux maladies.
 </t>
         </is>
       </c>
